--- a/biology/Botanique/Cannabis_autofloraison/Cannabis_autofloraison.xlsx
+++ b/biology/Botanique/Cannabis_autofloraison/Cannabis_autofloraison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cannabis autofloraison est une variété qui commence à fleurir après seulement 3 ou 4 semaines de phase de croissance, et cela peu importe le cycle de lumière. Ceci est possible grâce au croisement avec le cannabis Ruderalis. La plupart des autofloraisons seront prêtes a la récolte seulement 10 semaines après la germination de la graine.
 </t>
@@ -511,10 +523,12 @@
           <t>Avantages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Prêtes à la récolte en moins de dix semaines
-Elles peuvent pousser plus ou moins n'importe où sans se soucier d'un trouble lumineux[1]
+Elles peuvent pousser plus ou moins n'importe où sans se soucier d'un trouble lumineux
 Elles sont plus discrètes car prennent moins d'espace que les plantes de cannabis classiques
 Plusieurs récoltes par an sont possibles
 Les plantes sont plus résistantes aux insectes nuisibles et aux mauvaises conditions météorologiques.</t>
@@ -545,11 +559,13 @@
           <t>Désavantages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les autofloraisons sont connues pour donner un rendement beaucoup plus faible que les variétés à photopériode régulières.
 De nombreuses autofloraisons pourraient atteindre une puissance de 20% de THC, mais vous ne verrez pas souvent un échantillon de 28 à 30% de THC, comme vous pourriez le voir avec certaines des nouvelles variétés à photopériode.
-l'étêtage et les techniques de palissage à stress élevé sont à éviter de préférence. Les autos poussent tellement vite qu'elles n'ont que peu de temps pour récupérer des dégâts infligés[2].</t>
+l'étêtage et les techniques de palissage à stress élevé sont à éviter de préférence. Les autos poussent tellement vite qu'elles n'ont que peu de temps pour récupérer des dégâts infligés.</t>
         </is>
       </c>
     </row>
